--- a/Dokumenty/Plan.xlsx
+++ b/Dokumenty/Plan.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
   <si>
     <t>ELEMENT</t>
   </si>
@@ -34,6 +34,9 @@
   </si>
   <si>
     <t>Wstęp - przykłady implementacji</t>
+  </si>
+  <si>
+    <t>Aktualizacja programu praktyki dypl.</t>
   </si>
 </sst>
 </file>
@@ -391,10 +394,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C4"/>
+  <dimension ref="A1:C5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A5" sqref="A5"/>
+      <selection activeCell="B12" sqref="B12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -430,6 +433,11 @@
         <v>5</v>
       </c>
     </row>
+    <row r="5" spans="1:3">
+      <c r="A5" t="s">
+        <v>6</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/Dokumenty/Plan.xlsx
+++ b/Dokumenty/Plan.xlsx
@@ -397,7 +397,7 @@
   <dimension ref="A1:C5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B12" sqref="B12"/>
+      <selection activeCell="B15" sqref="B15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
